--- a/data/Benchmarks.xlsx
+++ b/data/Benchmarks.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0921AD19-23E1-44D4-9FD5-0CCD149F944D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA80F6C-DF30-4925-9995-1C369FD078D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="4" r:id="rId1"/>
-    <sheet name="VAR" sheetId="6" r:id="rId2"/>
+    <sheet name="Salmon" sheetId="6" r:id="rId2"/>
     <sheet name="Oil" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
   <si>
     <t>Maize</t>
   </si>
@@ -34673,8 +34673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD170B7-5247-4632-9345-E92016084A21}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -34706,15 +34706,13 @@
       </c>
       <c r="C1" s="9">
         <f>COUNTIF($F$2:$AJ$100, A1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1"/>
       <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -34745,9 +34743,7 @@
       <c r="F2" s="15">
         <v>40</v>
       </c>
-      <c r="G2" s="15">
-        <v>40</v>
-      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -34776,7 +34772,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="7">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -34800,11 +34796,11 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="7">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -35435,7 +35431,7 @@
       </c>
       <c r="C40" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1"/>
       <c r="G40" s="7"/>
@@ -36278,7 +36274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A4956-0250-408C-BA81-1A0CBE7DF20B}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -36340,7 +36336,7 @@
         <v>128</v>
       </c>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C65" si="0">COUNTIF($F$2:$AJ$100, A2)</f>
+        <f t="shared" ref="C2:C25" si="0">COUNTIF($F$2:$AJ$100, A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="13"/>

--- a/data/Benchmarks.xlsx
+++ b/data/Benchmarks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sigve Borgmo\Master\dynamic-factor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA80F6C-DF30-4925-9995-1C369FD078D1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE9F48C-8F0B-43B2-8B5B-9500F0A31EB6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>Maize</t>
   </si>
@@ -410,79 +410,100 @@
     <t>Feed consumption (tonnes)</t>
   </si>
   <si>
-    <t>US UNEMPLOYMENT RATE SADJ</t>
-  </si>
-  <si>
-    <t>US MONEY SUPPLY M1 CURA</t>
-  </si>
-  <si>
-    <t>World GDP</t>
-  </si>
-  <si>
-    <t>US CPI - ALL URBAN: ALL ITEMS SADJ</t>
-  </si>
-  <si>
-    <t>Natural Gas (US)</t>
-  </si>
-  <si>
-    <t>Argicultural commodity index (WB)</t>
-  </si>
-  <si>
-    <t>Metal index (WB)</t>
-  </si>
-  <si>
-    <t>US ROTARY RIGS IN OPERATION - CRUDE OIL VOLN</t>
-  </si>
-  <si>
-    <t>OC PETROLEUM: STOCKS VOLN</t>
-  </si>
-  <si>
-    <t>OX SURPLUS PRODUCTION CAPACITY - CRUDE OIL VOLN</t>
-  </si>
-  <si>
-    <t>WD CRUDE OIL PRODUCTION - WORLD VOLN</t>
-  </si>
-  <si>
-    <t>Crude Oil Total Prod OPEC - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>Crude Oil Total Prod Non-OPEC - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>Crude Oil Prod. Saudi Arabia - TURNOVER BY VOLUME</t>
-  </si>
-  <si>
-    <t>US TRADE-WEIGHTED VALUE OF US DOLLAR AGAINST MAJOR CURRENCIES</t>
-  </si>
-  <si>
-    <t>US TREASURY BILL RATE - 3 MONTH (EP) NADJ</t>
-  </si>
-  <si>
-    <t>S&amp;P 500 COMPOSITE - PRICE INDEX</t>
-  </si>
-  <si>
     <t>OSX</t>
   </si>
   <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>VIX index</t>
-  </si>
-  <si>
-    <t>Europe Brent Spot FOB</t>
-  </si>
-  <si>
-    <t>Brent-1</t>
-  </si>
-  <si>
-    <t>Brent-2</t>
-  </si>
-  <si>
     <t>F_spread</t>
   </si>
   <si>
     <t>BB_spread</t>
+  </si>
+  <si>
+    <t>UEMP</t>
+  </si>
+  <si>
+    <t>MONEYS</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>ARG.C</t>
+  </si>
+  <si>
+    <t>METAL</t>
+  </si>
+  <si>
+    <t>RIGS OPER.</t>
+  </si>
+  <si>
+    <t>OC STOCK</t>
+  </si>
+  <si>
+    <t>SURP. CAP</t>
+  </si>
+  <si>
+    <t>WORLD PROD.</t>
+  </si>
+  <si>
+    <t>OPEC PROD.</t>
+  </si>
+  <si>
+    <t>nonOPEC PROD.</t>
+  </si>
+  <si>
+    <t>SAUDA PROD.</t>
+  </si>
+  <si>
+    <t>$ T.VALUE</t>
+  </si>
+  <si>
+    <t>TREASURY</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>FOB</t>
+  </si>
+  <si>
+    <t>FOB-1</t>
+  </si>
+  <si>
+    <t>FOB-2</t>
+  </si>
+  <si>
+    <t>NYMEX CRACK</t>
+  </si>
+  <si>
+    <t>US IMPORT</t>
+  </si>
+  <si>
+    <t>OECD INV.</t>
+  </si>
+  <si>
+    <t>REF</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>KILLAN</t>
   </si>
 </sst>
 </file>
@@ -34673,8 +34694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD170B7-5247-4632-9345-E92016084A21}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36274,8 +36295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616A4956-0250-408C-BA81-1A0CBE7DF20B}">
   <dimension ref="A1:U103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -36303,7 +36324,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C1" s="9">
         <f>COUNTIF($F$2:$AJ$100, A1)</f>
@@ -36313,9 +36334,7 @@
       <c r="F1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -36333,10 +36352,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" s="9">
-        <f t="shared" ref="C2:C25" si="0">COUNTIF($F$2:$AJ$100, A2)</f>
+        <f t="shared" ref="C2:C32" si="0">COUNTIF($F$2:$AJ$100, A2)</f>
         <v>0</v>
       </c>
       <c r="D2" s="13"/>
@@ -36346,9 +36365,7 @@
       <c r="F2" s="15">
         <v>21</v>
       </c>
-      <c r="G2" s="15">
-        <v>21</v>
-      </c>
+      <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -36369,15 +36386,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -36397,7 +36414,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
@@ -36405,7 +36422,7 @@
       </c>
       <c r="D4" s="1"/>
       <c r="F4" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -36425,7 +36442,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
@@ -36433,7 +36450,7 @@
       </c>
       <c r="D5" s="1"/>
       <c r="F5" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -36453,7 +36470,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
@@ -36461,7 +36478,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="F6" s="7">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -36481,7 +36498,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
@@ -36489,7 +36506,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="F7" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -36509,7 +36526,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
@@ -36535,7 +36552,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
@@ -36561,7 +36578,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
@@ -36585,7 +36602,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
@@ -36610,7 +36627,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
@@ -36626,7 +36643,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
@@ -36642,7 +36659,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="0"/>
@@ -36658,7 +36675,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="0"/>
@@ -36674,7 +36691,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="0"/>
@@ -36690,7 +36707,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="0"/>
@@ -36706,11 +36723,11 @@
         <v>18</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1"/>
       <c r="G18" s="7"/>
@@ -36722,11 +36739,11 @@
         <v>19</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1"/>
       <c r="G19" s="7"/>
@@ -36738,11 +36755,11 @@
         <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1"/>
       <c r="G20" s="7"/>
@@ -36754,11 +36771,11 @@
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" s="7"/>
@@ -36770,7 +36787,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="0"/>
@@ -36786,7 +36803,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="0"/>
@@ -36802,11 +36819,11 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1"/>
       <c r="G24" s="7"/>
@@ -36818,7 +36835,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -36830,49 +36847,105 @@
       <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="G28" s="7"/>
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="C31" s="9"/>
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="C32" s="9"/>
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="G32" s="7"/>
     </row>
@@ -37260,7 +37333,7 @@
       <c r="C103" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C103 A1:B60">
+  <conditionalFormatting sqref="A1:B60 C1:C103">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>$C1=0</formula>
     </cfRule>
